--- a/Marketing/umd.roomme.xlsx
+++ b/Marketing/umd.roomme.xlsx
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/umd.roomme.xlsx
+++ b/Marketing/umd.roomme.xlsx
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">

--- a/Marketing/umd.roomme.xlsx
+++ b/Marketing/umd.roomme.xlsx
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">

--- a/Marketing/umd.roomme.xlsx
+++ b/Marketing/umd.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">

--- a/Marketing/umd.roomme.xlsx
+++ b/Marketing/umd.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>spaytyan</t>
+          <t>yonghanw5</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zireshoaz0</t>
+          <t>saudadejulius</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jake_hauf_1006</t>
+          <t>sophpetricoin</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sarabeth_lo</t>
+          <t>_kabirsidhu</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>oh_when_man_kah</t>
+          <t>arianna.nicoleee_</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>louis.weber1</t>
+          <t>carcar_824</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>catherinestockk</t>
+          <t>trisha.r15</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_andrew_z_</t>
+          <t>dcwelcomeweek</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaymahayes__</t>
+          <t>nadu_ad</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>_angela_dorsey_</t>
+          <t>laraa.becker</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ad4mst</t>
+          <t>sydneymalasy_</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k.kajubi</t>
+          <t>fiola_is_outside</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>marylandstudliving</t>
+          <t>chef_henri5</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dancesanjeeta</t>
+          <t>rachaelblum</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>diegoguevara04</t>
+          <t>james.marinello</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>instapapa2002</t>
+          <t>jaymahayes__</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>gaurspriv8</t>
+          <t>ethanmilllerrr</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jaerlee123</t>
+          <t>elisechang6</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>king_knotts</t>
+          <t>bobbkim0303</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>andrew.diveley.25</t>
+          <t>samhitha_gandla</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>robwilliams413</t>
+          <t>amira.erjonaa</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ashley.e.h</t>
+          <t>ryanmarks1212</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>comrade.ib</t>
+          <t>miaamrtn</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>peiwen_wk</t>
+          <t>sialessis</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txbiade</t>
+          <t>wilsonmartell</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>juliapirz</t>
+          <t>pips_1965</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>piaxalday</t>
+          <t>haleydecker_</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>marathondelicp</t>
+          <t>emiliaross__</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fzes22</t>
+          <t>_kelvinle_</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1_400_honey</t>
+          <t>_suhanisingh</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zigzagfox</t>
+          <t>sarahstvillier</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bjorn_uma</t>
+          <t>aces_umd</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>deathbycupcak3s</t>
+          <t>annaaccarpenter</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ezi_pzi</t>
+          <t>ayat.n_13</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ben.weath</t>
+          <t>ellahowee</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tori.hogan_</t>
+          <t>roryharmon</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>landons234</t>
+          <t>charsinghh</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>justhype31</t>
+          <t>marysmithjames3</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4mr.b</t>
+          <t>manasvi_h</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>firaol.desta</t>
+          <t>delya_umanzor</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>coleackerman2</t>
+          <t>tori.hogan_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>_connorchang</t>
+          <t>1zhang04</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sandrolcae</t>
+          <t>jade.caraniece</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>avis_p1</t>
+          <t>the1cashoutjay__</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nicolettefriedrich_</t>
+          <t>venni.g_</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>henry_the_ducky</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>elroy.vvs</t>
+          <t>zoemclearr</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sangitha45</t>
+          <t>em.wohlberg</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>joshcar200</t>
+          <t>ethan.le4</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>alkisme</t>
+          <t>_chino5_</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vertoymn1</t>
+          <t>neharathnavel</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>juicebox13_jr</t>
+          <t>kianaparvizi</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2016raymondyate</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kadaver_s</t>
+          <t>megha.m16</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_.latinag._</t>
+          <t>carolinebac0n</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sarahmblackman</t>
+          <t>rebeccasholc</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ugst_umd</t>
+          <t>pranay_qwerty</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_____rab</t>
+          <t>thisisnotelleburke</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>rulf.umd</t>
+          <t>jasleen.mann7</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>milena_levit</t>
+          <t>danayit_aa</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>millanava_</t>
+          <t>selmaahamza</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>amy.weger</t>
+          <t>davidengel007</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>wayii82</t>
+          <t>ryleekrinsky</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>rakinalim</t>
+          <t>kathryn.bas24</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>melanieveloze</t>
+          <t>itsninab1101_</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>yanagi.keipa</t>
+          <t>renikaza</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_kingdko</t>
+          <t>julion_03</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bellaa.ggonzalez</t>
+          <t>sophia.skinner</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nicolaslin__</t>
+          <t>correy.litt</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>umdcyc</t>
+          <t>simply.sharonn</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eim4terps</t>
+          <t>jremy.c.t</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>okayyzam</t>
+          <t>dove_alliali02</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lilshortyjordy</t>
+          <t>pretty.toriii_</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>johannagriffin491</t>
+          <t>nina.omatsola</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>onlyyiz</t>
+          <t>luvmahii</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kayleebloomx</t>
+          <t>sarahhxpham</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>curtis__sechler</t>
+          <t>jomalley26</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pulpyoreen</t>
+          <t>_bridgetknott_</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>gselez_</t>
+          <t>katie_sigmond05</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jahamas_dadingle</t>
+          <t>itsh4fa</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>liz_okeefe16</t>
+          <t>octaviansmithjr</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ben.simmons927</t>
+          <t>mihirmiller</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>kreeesshutup</t>
+          <t>andrewconnollyy</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>umd_liminal</t>
+          <t>briley_makenna</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>_jocelyyn._</t>
+          <t>pbaggili</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>snowrhee</t>
+          <t>jaxmineflores</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>martjackinson</t>
+          <t>xxoashhh</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>saffron.mn</t>
+          <t>tiff_.lee</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sarah._.w12</t>
+          <t>erinmellendick</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>siri_vadlamudi</t>
+          <t>steph_an_yi</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>elktonhallrha</t>
+          <t>d3si_o</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>apan_umd</t>
+          <t>ry.brunner</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>anish_gupta571</t>
+          <t>savvydabaddy22</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jojo_m0jo</t>
+          <t>m.i.k.a.i.l.i</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>emmaaamurrayyy</t>
+          <t>cadams.1</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hakimmm.18</t>
+          <t>only_devv13</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>purediamond1991</t>
+          <t>kmherberholz</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>nickreddd</t>
+          <t>austenrende</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>scarlettkurtis</t>
+          <t>sandraaasmith</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dmvturo__</t>
+          <t>amberley.kuo</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>jillian.waxman</t>
+          <t>itsrileynelson</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>pb3indc</t>
+          <t>tahlia.williamss</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>christineehaa</t>
+          <t>brenna.d.w</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lmcgonig</t>
+          <t>sophiamoseleyy</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>truthseeker0740</t>
+          <t>skylarberman</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>luc4_fi</t>
+          <t>ellie_levchuk</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>j_marksus_finsta</t>
+          <t>nicky_szabo</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>lucas_ling05</t>
+          <t>hannahglazer02</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>k4tihertz</t>
+          <t>taylorfaust_</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sridhar.muthrasanallur</t>
+          <t>e.helise</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>maheder17</t>
+          <t>nehadheen</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>baby_rebo</t>
+          <t>trapvisualzdmv</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>z.anese</t>
+          <t>itz.beckyyt</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>mdejesus_15</t>
+          <t>joseph.darrow</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lor3e.x</t>
+          <t>sophiafrench_</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>matthew_w4ng</t>
+          <t>sarah.kliger</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>its_giovannirdz</t>
+          <t>aneesahkhan04</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>to.hiroshi.tristan</t>
+          <t>tonylib6</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>amourrii.__</t>
+          <t>seeratb05</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>jforville</t>
+          <t>kayleezaveduk</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sleightlyweird</t>
+          <t>darciagleason</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jalynreign</t>
+          <t>mikeo03</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>daviddjacksonjr</t>
+          <t>natalie.chen_</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rosenbergkaufman</t>
+          <t>anjalis019</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vibhahahaa</t>
+          <t>xspence04</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>talon.shreds</t>
+          <t>urfav.brrii</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sweettea418</t>
+          <t>elielkacano</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>stacej1203</t>
+          <t>anish_gupta571</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>chonnks</t>
+          <t>geocam_umd</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vanessatorciaa</t>
+          <t>purediamond1991</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,307 +1748,307 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>rokya_1819</t>
+          <t>allgen37</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mehran_molazehi</t>
+          <t>__cameronwhite</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>prith_the_myth</t>
+          <t>phikdijdu567</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>umdfsl</t>
+          <t>sam.krakower</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>fhopkins22</t>
+          <t>saumsamya</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>_andrewgrey</t>
+          <t>curtis__sechler</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ggriffey12</t>
+          <t>kare.mm27</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>lorimcoop</t>
+          <t>maria.rangwala</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>garygbs2nd</t>
+          <t>becaaross</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>sharon_muchangi2</t>
+          <t>ashleycmorales</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lady_donmez</t>
+          <t>edna.h.a</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tofu.amu</t>
+          <t>stone_hunter_schwartz</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kristopher_stoichkov</t>
+          <t>mitchiesigler</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>assiryani</t>
+          <t>lydia_m___</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>hi_l_wilson</t>
+          <t>janky_l</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>wearnur</t>
+          <t>oscarkrug1</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>mattgermack</t>
+          <t>casey.dehaan</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>jpshapyy</t>
+          <t>jordanlfine</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jcal447</t>
+          <t>maddie.lavina</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>lisa._.lian</t>
+          <t>jblondie75</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>_kevodc</t>
+          <t>umdroomatesearch</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lukasozpaker</t>
+          <t>millanava_</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>__ma00hsa__</t>
+          <t>livvcastelli</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>pshin03</t>
+          <t>yef_maryland</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>rchoi.9574</t>
+          <t>sz.ego</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>72eggs</t>
+          <t>lissaamason</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>djdomino420</t>
+          <t>kelseykwann</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>arleneschindler_</t>
+          <t>nicolemcgowann</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sonal.a.m</t>
+          <t>e_.shantyy</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>royaleze_</t>
+          <t>_meannaa_</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>taniam1118</t>
+          <t>renraskin</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lavisid</t>
+          <t>keira_sonngg</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>cee_gar</t>
+          <t>dogloverz_34</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>frottman</t>
+          <t>yannah_1</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>markmitch12</t>
+          <t>j.jennings8</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>awalajacqueline</t>
+          <t>aaron_lewis04</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>anne.lavina1</t>
+          <t>harlenekaurrr</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ethanmilllerrr</t>
+          <t>joeitarrazi</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>jillybean.345</t>
+          <t>bradenn6</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>brookehollland</t>
+          <t>_rere._.yen</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rileyw30056</t>
+          <t>miasilvermann</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>emely.c.ruano</t>
+          <t>hannahaghdam</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>art.by.frazier</t>
+          <t>julessbea</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>luv.dejaaa</t>
+          <t>madieades_</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dannyphil_</t>
+          <t>ella.yaeger</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>karthikkola_</t>
+          <t>tyhepting9</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kimoz12345</t>
+          <t>bevneet.k</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>adryxnnaaa</t>
+          <t>ritikabontu</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>pat_fohner</t>
+          <t>sandrolcae</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alyssahottle</t>
+          <t>neuratumd</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>judikhalifa</t>
+          <t>ashlee.leighty</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>girxeerck_w</t>
+          <t>awesomeguy75045</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>samt8281</t>
+          <t>kevin_zhuang64</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>art03_k</t>
+          <t>fiareich</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>atara.kidorf</t>
+          <t>jenna_thompson29</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>scottdobo</t>
+          <t>lily.gadra</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>the_stinger1212</t>
+          <t>rileyw30056</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jinmerick</t>
+          <t>saffron.mn</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ar.yan.yan</t>
+          <t>isabxllasanchxz</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>saralgavin</t>
+          <t>solaeolae</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>viaphia_tina</t>
+          <t>umcpasa</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mayya_alocci</t>
+          <t>lukkejohnson</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>isabxllasanchxz</t>
+          <t>ovierunshxt_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>raxonkey</t>
+          <t>ambq01</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>pw_318</t>
+          <t>candacewei_</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>lafamilia_umd</t>
+          <t>elktonhallrha</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>zoemclearr</t>
+          <t>lydiabelayy</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>carlylindhorst</t>
+          <t>jillian.waxman</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_amber.joy_</t>
+          <t>eeshathakkar</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_kateharris8</t>
+          <t>annieoharaa</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>keilyyadl</t>
+          <t>fjjandrews</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sophia_gabbei</t>
+          <t>zach.roberge</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>edith.arunkumar</t>
+          <t>anqelicar</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>aecbetan</t>
+          <t>lukethomas.6</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>lovely_moon_bean</t>
+          <t>avaapiatt</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>chlor5678</t>
+          <t>logan_maroclo</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kianaparvizi</t>
+          <t>ziada.yyub</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>imleilani</t>
+          <t>ellieabrii_</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>wuilmaaa</t>
+          <t>annalouise.c</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>jordanwebb</t>
+          <t>braden_coban</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>josephine_trevino04</t>
+          <t>malaykaghauri</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>e.serway</t>
+          <t>ashley.taup</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>bora_2860_</t>
+          <t>aliam_20</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>terrapinlife</t>
+          <t>chitraasankar</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>isadezaa</t>
+          <t>omgd03</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>edras._</t>
+          <t>_kimberly.9_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>queenitsme6</t>
+          <t>sarasifert</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>the_great_l_hix</t>
+          <t>sgk0327</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>good.vibes.a.d</t>
+          <t>jaynadkarni3</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>solaeolae</t>
+          <t>satwik.peela</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>yonghanw5</t>
+          <t>jariaalexis</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ad.ruff</t>
+          <t>jentaylor1231</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>melanniewith2n</t>
+          <t>catherinestockk</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ets.626</t>
+          <t>durankeefe</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>dejcvmille</t>
+          <t>marylandrha</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>crii.wxlf</t>
+          <t>thedallascooke</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>jessice225</t>
+          <t>lucidiebboll</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>tltcterps</t>
+          <t>softasikas</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>phillyskin1975</t>
+          <t>riya.a.malhotra</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cjhowsyourday16</t>
+          <t>dhruvi_kadhiwala</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>loren.v.hsu</t>
+          <t>j.aaarriii</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>zevgewurz</t>
+          <t>mkrisha_</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>hollyharo_</t>
+          <t>g1ghs</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>aliceyuan_99</t>
+          <t>allie.moraglia</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>og_shoubi</t>
+          <t>mira.pal_</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>frnatumd</t>
+          <t>emely.c.ruano</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>amora1es._</t>
+          <t>rachel.deweyy</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ifra_hana</t>
+          <t>the_stinger1212</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>k.guildener</t>
+          <t>michelleroddriguez</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>liammoran04</t>
+          <t>anikahukmani</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>krnv1448</t>
+          <t>umdyounglife</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>sophiamoseleyy</t>
+          <t>ekilk_11</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>maddieedriscoll</t>
+          <t>buen_floricel</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>bohemiabooze</t>
+          <t>96ryant</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>tosdentalcare</t>
+          <t>lor3e.x</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>samhitha_gandla</t>
+          <t>_justin_chu</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>joshuamacmillan_</t>
+          <t>c.donisss</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>andy.r.arias</t>
+          <t>d13.anaa</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>priyankanavale7</t>
+          <t>davidjinliu</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>logan_maroclo</t>
+          <t>lizzie_ryderr</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>nick.cuv</t>
+          <t>lucy.zalayet</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>the_kyle_2</t>
+          <t>alexdennin</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>savvydabaddy22</t>
+          <t>marvishroff</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>chenkofightnih</t>
+          <t>danielle.duffyy</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>jennxfxr</t>
+          <t>tahirah.turnage</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>hutchinssw</t>
+          <t>wiafeamoako</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>courragee</t>
+          <t>kaunga_1</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>thedontuan_</t>
+          <t>yanisterrr</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>moizyou</t>
+          <t>natalieasburyy</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>heyy_its_nataly</t>
+          <t>maddyje_245</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>correy.litt</t>
+          <t>james.tierneyy</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>f_go.007</t>
+          <t>hb_levin</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>kaunga_1</t>
+          <t>minht.ha</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>xxoashhh</t>
+          <t>quade_blazevich</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sarahthomas._</t>
+          <t>christinablessing</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>kali2019_</t>
+          <t>_tia.yu_</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>octaviansmithjr</t>
+          <t>knesumd</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>samsinheresomewhere</t>
+          <t>ayee.catherinee</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>lydia_m___</t>
+          <t>tyler_moran11</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>salmo.syrup</t>
+          <t>_kateharris8</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>onsomuu</t>
+          <t>alisons.wang</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>alex.jacobs21</t>
+          <t>soomin_carrot</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ferziinhaa25</t>
+          <t>carmenparadaa</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ajverrie</t>
+          <t>rebeccaxmiranda</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ash.wegener34</t>
+          <t>shristigg</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>its.not.a.typo</t>
+          <t>matthew_ma04</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>whole.snack.daniel</t>
+          <t>edavies_480</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>victorvasquez4103</t>
+          <t>juliazuzovsky</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>stephenlawrence_07</t>
+          <t>gilli_fede</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>stellany2020</t>
+          <t>jake_do1</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>vikrant_sss</t>
+          <t>kylie_wisni</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>v.schellberg</t>
+          <t>ritvik.venkat715</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>steph_an_yi</t>
+          <t>emilybaligush</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>vmpnick</t>
+          <t>axelbalestrieri</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>wilson_lame</t>
+          <t>jodi.ritz19</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>charsinghh</t>
+          <t>deena_habash_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>boyang732</t>
+          <t>purvachimurkar</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>daphne.era</t>
+          <t>z.anese</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>stlowbeby</t>
+          <t>payton.buchner</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>eileendchen</t>
+          <t>bxbydoris._</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>glowoverflow</t>
+          <t>terrapinlife</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>kendrick_carlos</t>
+          <t>johannagriffin491</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>timiaaaa</t>
+          <t>graceaadkins</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>susyn_21</t>
+          <t>genevieve_ebaugh</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>trapvisualzdmv</t>
+          <t>umdscience</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>restan735</t>
+          <t>andrew.itscovitch</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>wendy.golda_</t>
+          <t>brooklynababy</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>sdparitz</t>
+          <t>hannahlily_9</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>isyjandra</t>
+          <t>_kaavyasuresh</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>emberlytle</t>
+          <t>natlinnn</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>darialend111</t>
+          <t>nehipathak_</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>briandwyer12</t>
+          <t>car_vroom03</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>fiola_is_outside</t>
+          <t>jackiefiliaci</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>michael.d.schafer</t>
+          <t>_k.vin__</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>katie1324567</t>
+          <t>graceliiao</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>frankay11</t>
+          <t>wassup.cameron</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>riyajaved_</t>
+          <t>carly.braverman</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>christyhorwitz</t>
+          <t>_mimia7</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1spncr</t>
+          <t>arav_102</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ccgelio</t>
+          <t>ifra_hana</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>mills1553</t>
+          <t>ethanrathmell</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>k0f1.a</t>
+          <t>_sesennn</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>grapetrez</t>
+          <t>tahlia_mw</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>danielle_443828</t>
+          <t>chloegraystone</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>scuaresma.22</t>
+          <t>royaleze_</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>andrewconnollyy</t>
+          <t>zakiara_shanae</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>sandy_art_56</t>
+          <t>cheywong22</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jangablox</t>
+          <t>coreygross29</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>cmaaumd</t>
+          <t>ajverrie</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>m0nt111</t>
+          <t>daniellelondon_</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>bunyamingokcek64</t>
+          <t>maryadurg</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>__lazz__</t>
+          <t>pokususan</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>liontrimi5</t>
+          <t>aldenmayy</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>oliviamargaret15</t>
+          <t>_.v.rush._</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>olindamelquis</t>
+          <t>renso0425</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>anishka.21</t>
+          <t>dipsu.shrestha</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>e_.shantyy</t>
+          <t>luvvxella</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>sh.chrislee</t>
+          <t>umddining</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>hameedaamee21</t>
+          <t>pramatii</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>bobbyschaller</t>
+          <t>emily_.nguyen</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>arav_102</t>
+          <t>elliewiiinter</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ziada.yyub</t>
+          <t>kashvisikka</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>dogloverz_34</t>
+          <t>carlyeholton</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>watkins_jc_</t>
+          <t>bryonnna</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kalpy_y</t>
+          <t>mueezchaudhry_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>the.lash.haus</t>
+          <t>jamesyzhang</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>focusframemd</t>
+          <t>serinoortho</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,10 +3818,1280 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>katelyn.elizabeth04</t>
+          <t>elliemetz_</t>
         </is>
       </c>
       <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>oh_when_man_kah</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ovalle.ian</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>emilyrind</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>zoentsetsilas</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>laurengalllagher</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>joy.dockendorf3</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>jimmy.tedra</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>zachischwartz</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>wifeoftime</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>solymara</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>hannah.eisenfeld</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>riaakapur</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>sophia_gabbei</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ad.ruff</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>kiramartiin</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>rahamoshasha</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>katie.m64</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>flander_leons_33</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>mdejesus_15</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>kaursehnoor</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>alphabet_soup333</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>king_knotts</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>giuliahoorens</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>sxndraa._</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>srogers.17</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>mun_shah783</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>daniel.diep.39</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>ava_lee_allen</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>jimmy_miller_3</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>carissawolffff</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>lilly_chakiath</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>shareen.a.z</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>krushishah_</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ansh_tyagi1</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>rina.91300</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>siddhantmittal2021</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>yafavryn</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>franki.toro</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>sebastian.decady</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>lizrouch</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>ashleyymellisa</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>thereal.rcn</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>manu.parimi</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>jay_bae707</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>kaleab_7</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>nolawe.t</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>tropa.palma</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>edith.arunkumar</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>elizabethsmorrison</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>londramarisol</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>oliviagriffiith</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>miratadim</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>bynnenna</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>jordanherman094</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>keilyyadl</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>aaoiler2</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>hannnahchan</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>nali_101</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>its.maryann_e</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>jaylen_lane00</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>james1yons</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>meghan.lukich</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>jamesgarv</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>alexawetrogan</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ojalarya</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>samifeinstein</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>isadezaa</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>_kathyyazmin</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>kate.cohen_</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>chapelumd</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>i.billey</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>shalini.singh.5201</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>kidus_g4</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>umd_stolen_scooter</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>damanjot515</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>tltcterps</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>luciaa_larreaa</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>thereallynell</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>jojo_szzn</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>littyy.les</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>austinelkis</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>leah.schutz</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>krishna.tipparaju</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ashleyvolans</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>prarthanaxo</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>liyatadesse7</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>brigidearley</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>tony_lee.exe</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>haley.smetana</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>kibervg</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>sofiaorezz</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>margaritazeleniy</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>cricia.villanueva</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>rehemawn</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>nitesh_kat</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>olivia.canevari</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>gannon.sprinkle</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>theyy.lovee_laysia</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>_gaaabbyyy</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>hanna.r.r24</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>tammykeselman</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>naabiefrem</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>_siya.ptl_</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>_erikaquenano_</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>kendyl.lepp</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>andrewyang_03</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>dishaapatellllll</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>therealmaniahb</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>noodlegirlmae</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>briana_flemke</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>jordancafaro</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ycul_uw</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>_eileenchenn</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>zarashamsuddin</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>allie.joness</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>garygbs2nd</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>abby.weissert</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>nora.romano_</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>christineehaa</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>nataliehaugen_</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>_npa_421</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>ashlynnicrodriguez</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>aamberologyy</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>melviadebrah</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>ayu.sh_31</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>xuan_zhanq</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>samantha.osborne</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
         <v>0</v>
       </c>
     </row>
